--- a/Met_Power_Data_GitHub.xlsx
+++ b/Met_Power_Data_GitHub.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kluis\OneDrive\Desktop\Everything\TAMU\Thesis\T3\Data\FullTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81660D23-F33D-4749-9D15-46364C8DE38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3933E-7B5A-4F3E-A71D-AFA76560A4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0DE5E7F4-E355-48C2-B95E-EB1AC6A6C9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Long" sheetId="2" r:id="rId2"/>
-    <sheet name="RQ&gt;1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="42">
   <si>
     <t>Subject</t>
   </si>
@@ -151,39 +150,6 @@
     <t>4mph - 10%</t>
   </si>
   <si>
-    <t>Sub 13</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Sub 1</t>
-  </si>
-  <si>
-    <t>Sub 2</t>
-  </si>
-  <si>
-    <t>Sub 4</t>
-  </si>
-  <si>
-    <t>Sub 6</t>
-  </si>
-  <si>
-    <t>Sub 7</t>
-  </si>
-  <si>
-    <t>Sub 9</t>
-  </si>
-  <si>
-    <t>Sub 10</t>
-  </si>
-  <si>
-    <t>Sub 11</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -232,9 +198,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +517,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -608,10 +573,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1496,7 +1461,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,10 +1513,10 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="O1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -1599,7 +1564,7 @@
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -1650,7 +1615,7 @@
         <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -1701,7 +1666,7 @@
         <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1752,7 +1717,7 @@
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1803,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -1854,7 +1819,7 @@
         <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1905,7 +1870,7 @@
         <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O8">
         <v>2</v>
@@ -1956,7 +1921,7 @@
         <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -2007,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -2058,7 +2023,7 @@
         <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -2109,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -2160,7 +2125,7 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -2211,7 +2176,7 @@
         <v>33</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -2262,7 +2227,7 @@
         <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O15">
         <v>2</v>
@@ -2313,7 +2278,7 @@
         <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -2364,7 +2329,7 @@
         <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2415,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2466,7 +2431,7 @@
         <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2517,7 +2482,7 @@
         <v>35</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2568,7 +2533,7 @@
         <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2619,7 +2584,7 @@
         <v>33</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2670,7 +2635,7 @@
         <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2721,7 +2686,7 @@
         <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -2772,7 +2737,7 @@
         <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2823,7 +2788,7 @@
         <v>33</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -2874,7 +2839,7 @@
         <v>34</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2925,7 +2890,7 @@
         <v>35</v>
       </c>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -2976,7 +2941,7 @@
         <v>36</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -3027,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="N30" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -3078,7 +3043,7 @@
         <v>34</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -3129,7 +3094,7 @@
         <v>35</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -3180,7 +3145,7 @@
         <v>36</v>
       </c>
       <c r="N33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -3231,7 +3196,7 @@
         <v>33</v>
       </c>
       <c r="N34" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -3282,7 +3247,7 @@
         <v>34</v>
       </c>
       <c r="N35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -3333,7 +3298,7 @@
         <v>35</v>
       </c>
       <c r="N36" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -3384,7 +3349,7 @@
         <v>36</v>
       </c>
       <c r="N37" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -3435,7 +3400,7 @@
         <v>33</v>
       </c>
       <c r="N38" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O38">
         <v>1</v>
@@ -3486,7 +3451,7 @@
         <v>34</v>
       </c>
       <c r="N39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -3537,7 +3502,7 @@
         <v>35</v>
       </c>
       <c r="N40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -3588,7 +3553,7 @@
         <v>36</v>
       </c>
       <c r="N41" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -3639,7 +3604,7 @@
         <v>33</v>
       </c>
       <c r="N42" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -3690,7 +3655,7 @@
         <v>34</v>
       </c>
       <c r="N43" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O43">
         <v>1</v>
@@ -3741,7 +3706,7 @@
         <v>35</v>
       </c>
       <c r="N44" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -3792,7 +3757,7 @@
         <v>36</v>
       </c>
       <c r="N45" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O45">
         <v>1</v>
@@ -3843,7 +3808,7 @@
         <v>33</v>
       </c>
       <c r="N46" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O46">
         <v>1</v>
@@ -3894,7 +3859,7 @@
         <v>34</v>
       </c>
       <c r="N47" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -3945,7 +3910,7 @@
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -3996,7 +3961,7 @@
         <v>36</v>
       </c>
       <c r="N49" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4047,7 +4012,7 @@
         <v>33</v>
       </c>
       <c r="N50" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -4098,7 +4063,7 @@
         <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4149,7 +4114,7 @@
         <v>35</v>
       </c>
       <c r="N52" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -4200,7 +4165,7 @@
         <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -4251,7 +4216,7 @@
         <v>33</v>
       </c>
       <c r="N54" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O54">
         <v>1</v>
@@ -4302,7 +4267,7 @@
         <v>34</v>
       </c>
       <c r="N55" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O55">
         <v>1</v>
@@ -4353,7 +4318,7 @@
         <v>35</v>
       </c>
       <c r="N56" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -4404,7 +4369,7 @@
         <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O57">
         <v>1</v>
@@ -4455,7 +4420,7 @@
         <v>33</v>
       </c>
       <c r="N58" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -4506,7 +4471,7 @@
         <v>34</v>
       </c>
       <c r="N59" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -4557,7 +4522,7 @@
         <v>35</v>
       </c>
       <c r="N60" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -4608,7 +4573,7 @@
         <v>36</v>
       </c>
       <c r="N61" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -4659,7 +4624,7 @@
         <v>33</v>
       </c>
       <c r="N62" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -4710,7 +4675,7 @@
         <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -4761,7 +4726,7 @@
         <v>35</v>
       </c>
       <c r="N64" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O64">
         <v>1</v>
@@ -4812,7 +4777,7 @@
         <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -4863,7 +4828,7 @@
         <v>33</v>
       </c>
       <c r="N66" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4914,7 +4879,7 @@
         <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -4965,7 +4930,7 @@
         <v>35</v>
       </c>
       <c r="N68" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -5016,7 +4981,7 @@
         <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -5067,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="N70" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -5118,7 +5083,7 @@
         <v>34</v>
       </c>
       <c r="N71" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -5169,7 +5134,7 @@
         <v>35</v>
       </c>
       <c r="N72" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O72">
         <v>1</v>
@@ -5220,7 +5185,7 @@
         <v>36</v>
       </c>
       <c r="N73" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -5271,7 +5236,7 @@
         <v>33</v>
       </c>
       <c r="N74" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5322,7 +5287,7 @@
         <v>34</v>
       </c>
       <c r="N75" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -5373,7 +5338,7 @@
         <v>35</v>
       </c>
       <c r="N76" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -5424,7 +5389,7 @@
         <v>36</v>
       </c>
       <c r="N77" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -5475,7 +5440,7 @@
         <v>33</v>
       </c>
       <c r="N78" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O78">
         <v>1</v>
@@ -5526,7 +5491,7 @@
         <v>34</v>
       </c>
       <c r="N79" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -5577,7 +5542,7 @@
         <v>35</v>
       </c>
       <c r="N80" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O80">
         <v>1</v>
@@ -5628,7 +5593,7 @@
         <v>36</v>
       </c>
       <c r="N81" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -5679,7 +5644,7 @@
         <v>33</v>
       </c>
       <c r="N82" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O82">
         <v>2</v>
@@ -5730,7 +5695,7 @@
         <v>34</v>
       </c>
       <c r="N83" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O83">
         <v>2</v>
@@ -5781,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="N84" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O84">
         <v>2</v>
@@ -5832,7 +5797,7 @@
         <v>36</v>
       </c>
       <c r="N85" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O85">
         <v>2</v>
@@ -5883,7 +5848,7 @@
         <v>33</v>
       </c>
       <c r="N86" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O86">
         <v>2</v>
@@ -5934,7 +5899,7 @@
         <v>34</v>
       </c>
       <c r="N87" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O87">
         <v>2</v>
@@ -5985,7 +5950,7 @@
         <v>35</v>
       </c>
       <c r="N88" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O88">
         <v>2</v>
@@ -6036,7 +6001,7 @@
         <v>36</v>
       </c>
       <c r="N89" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O89">
         <v>2</v>
@@ -6087,7 +6052,7 @@
         <v>33</v>
       </c>
       <c r="N90" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O90">
         <v>2</v>
@@ -6138,7 +6103,7 @@
         <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O91">
         <v>2</v>
@@ -6189,7 +6154,7 @@
         <v>35</v>
       </c>
       <c r="N92" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O92">
         <v>2</v>
@@ -6240,7 +6205,7 @@
         <v>36</v>
       </c>
       <c r="N93" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O93">
         <v>2</v>
@@ -6291,7 +6256,7 @@
         <v>33</v>
       </c>
       <c r="N94" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O94">
         <v>2</v>
@@ -6342,7 +6307,7 @@
         <v>34</v>
       </c>
       <c r="N95" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O95">
         <v>2</v>
@@ -6393,7 +6358,7 @@
         <v>35</v>
       </c>
       <c r="N96" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O96">
         <v>2</v>
@@ -6444,7 +6409,7 @@
         <v>36</v>
       </c>
       <c r="N97" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O97">
         <v>2</v>
@@ -6495,7 +6460,7 @@
         <v>33</v>
       </c>
       <c r="N98" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -6546,7 +6511,7 @@
         <v>34</v>
       </c>
       <c r="N99" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -6597,7 +6562,7 @@
         <v>35</v>
       </c>
       <c r="N100" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -6648,7 +6613,7 @@
         <v>36</v>
       </c>
       <c r="N101" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -6699,7 +6664,7 @@
         <v>33</v>
       </c>
       <c r="N102" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -6750,7 +6715,7 @@
         <v>34</v>
       </c>
       <c r="N103" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -6801,7 +6766,7 @@
         <v>35</v>
       </c>
       <c r="N104" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O104">
         <v>1</v>
@@ -6852,7 +6817,7 @@
         <v>36</v>
       </c>
       <c r="N105" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -6903,7 +6868,7 @@
         <v>33</v>
       </c>
       <c r="N106" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -6954,7 +6919,7 @@
         <v>34</v>
       </c>
       <c r="N107" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -7005,7 +6970,7 @@
         <v>35</v>
       </c>
       <c r="N108" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -7056,7 +7021,7 @@
         <v>36</v>
       </c>
       <c r="N109" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7107,7 +7072,7 @@
         <v>33</v>
       </c>
       <c r="N110" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -7158,7 +7123,7 @@
         <v>34</v>
       </c>
       <c r="N111" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -7209,7 +7174,7 @@
         <v>35</v>
       </c>
       <c r="N112" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -7260,7 +7225,7 @@
         <v>36</v>
       </c>
       <c r="N113" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7311,7 +7276,7 @@
         <v>33</v>
       </c>
       <c r="N114" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O114">
         <v>2</v>
@@ -7362,7 +7327,7 @@
         <v>34</v>
       </c>
       <c r="N115" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O115">
         <v>2</v>
@@ -7413,7 +7378,7 @@
         <v>35</v>
       </c>
       <c r="N116" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O116">
         <v>2</v>
@@ -7464,7 +7429,7 @@
         <v>36</v>
       </c>
       <c r="N117" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O117">
         <v>2</v>
@@ -7515,7 +7480,7 @@
         <v>33</v>
       </c>
       <c r="N118" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O118">
         <v>2</v>
@@ -7566,7 +7531,7 @@
         <v>34</v>
       </c>
       <c r="N119" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O119">
         <v>2</v>
@@ -7617,7 +7582,7 @@
         <v>35</v>
       </c>
       <c r="N120" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O120">
         <v>2</v>
@@ -7668,7 +7633,7 @@
         <v>36</v>
       </c>
       <c r="N121" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O121">
         <v>2</v>
@@ -7719,7 +7684,7 @@
         <v>33</v>
       </c>
       <c r="N122" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O122">
         <v>2</v>
@@ -7770,7 +7735,7 @@
         <v>34</v>
       </c>
       <c r="N123" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O123">
         <v>2</v>
@@ -7821,7 +7786,7 @@
         <v>35</v>
       </c>
       <c r="N124" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O124">
         <v>2</v>
@@ -7872,7 +7837,7 @@
         <v>36</v>
       </c>
       <c r="N125" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O125">
         <v>2</v>
@@ -7923,7 +7888,7 @@
         <v>33</v>
       </c>
       <c r="N126" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O126">
         <v>2</v>
@@ -7974,7 +7939,7 @@
         <v>34</v>
       </c>
       <c r="N127" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O127">
         <v>2</v>
@@ -8025,7 +7990,7 @@
         <v>35</v>
       </c>
       <c r="N128" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O128">
         <v>2</v>
@@ -8076,7 +8041,7 @@
         <v>36</v>
       </c>
       <c r="N129" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O129">
         <v>2</v>
@@ -8127,7 +8092,7 @@
         <v>33</v>
       </c>
       <c r="N130" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -8178,7 +8143,7 @@
         <v>34</v>
       </c>
       <c r="N131" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -8229,7 +8194,7 @@
         <v>35</v>
       </c>
       <c r="N132" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O132">
         <v>1</v>
@@ -8280,7 +8245,7 @@
         <v>36</v>
       </c>
       <c r="N133" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O133">
         <v>1</v>
@@ -8331,7 +8296,7 @@
         <v>33</v>
       </c>
       <c r="N134" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -8382,7 +8347,7 @@
         <v>34</v>
       </c>
       <c r="N135" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O135">
         <v>1</v>
@@ -8433,7 +8398,7 @@
         <v>35</v>
       </c>
       <c r="N136" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O136">
         <v>1</v>
@@ -8484,7 +8449,7 @@
         <v>36</v>
       </c>
       <c r="N137" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O137">
         <v>1</v>
@@ -8535,7 +8500,7 @@
         <v>33</v>
       </c>
       <c r="N138" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O138">
         <v>1</v>
@@ -8586,7 +8551,7 @@
         <v>34</v>
       </c>
       <c r="N139" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O139">
         <v>1</v>
@@ -8637,7 +8602,7 @@
         <v>35</v>
       </c>
       <c r="N140" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O140">
         <v>1</v>
@@ -8688,7 +8653,7 @@
         <v>36</v>
       </c>
       <c r="N141" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O141">
         <v>1</v>
@@ -8739,7 +8704,7 @@
         <v>33</v>
       </c>
       <c r="N142" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O142">
         <v>1</v>
@@ -8790,7 +8755,7 @@
         <v>34</v>
       </c>
       <c r="N143" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O143">
         <v>1</v>
@@ -8841,7 +8806,7 @@
         <v>35</v>
       </c>
       <c r="N144" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O144">
         <v>1</v>
@@ -8892,7 +8857,7 @@
         <v>36</v>
       </c>
       <c r="N145" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="O145">
         <v>1</v>
@@ -8943,7 +8908,7 @@
         <v>33</v>
       </c>
       <c r="N146" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O146">
         <v>2</v>
@@ -8994,7 +8959,7 @@
         <v>34</v>
       </c>
       <c r="N147" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O147">
         <v>2</v>
@@ -9045,7 +9010,7 @@
         <v>35</v>
       </c>
       <c r="N148" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O148">
         <v>2</v>
@@ -9096,7 +9061,7 @@
         <v>36</v>
       </c>
       <c r="N149" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O149">
         <v>2</v>
@@ -9147,7 +9112,7 @@
         <v>33</v>
       </c>
       <c r="N150" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O150">
         <v>2</v>
@@ -9198,7 +9163,7 @@
         <v>34</v>
       </c>
       <c r="N151" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O151">
         <v>2</v>
@@ -9249,7 +9214,7 @@
         <v>35</v>
       </c>
       <c r="N152" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O152">
         <v>2</v>
@@ -9300,7 +9265,7 @@
         <v>36</v>
       </c>
       <c r="N153" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O153">
         <v>2</v>
@@ -9351,7 +9316,7 @@
         <v>33</v>
       </c>
       <c r="N154" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O154">
         <v>2</v>
@@ -9402,7 +9367,7 @@
         <v>34</v>
       </c>
       <c r="N155" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O155">
         <v>2</v>
@@ -9453,7 +9418,7 @@
         <v>35</v>
       </c>
       <c r="N156" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O156">
         <v>2</v>
@@ -9504,7 +9469,7 @@
         <v>36</v>
       </c>
       <c r="N157" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O157">
         <v>2</v>
@@ -9555,7 +9520,7 @@
         <v>33</v>
       </c>
       <c r="N158" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O158">
         <v>2</v>
@@ -9606,7 +9571,7 @@
         <v>34</v>
       </c>
       <c r="N159" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O159">
         <v>2</v>
@@ -9657,7 +9622,7 @@
         <v>35</v>
       </c>
       <c r="N160" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O160">
         <v>2</v>
@@ -9708,7 +9673,7 @@
         <v>36</v>
       </c>
       <c r="N161" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O161">
         <v>2</v>
@@ -9759,7 +9724,7 @@
         <v>33</v>
       </c>
       <c r="N162" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O162">
         <v>2</v>
@@ -9810,7 +9775,7 @@
         <v>34</v>
       </c>
       <c r="N163" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O163">
         <v>2</v>
@@ -9861,7 +9826,7 @@
         <v>35</v>
       </c>
       <c r="N164" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O164">
         <v>2</v>
@@ -9912,7 +9877,7 @@
         <v>36</v>
       </c>
       <c r="N165" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O165">
         <v>2</v>
@@ -9963,7 +9928,7 @@
         <v>33</v>
       </c>
       <c r="N166" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O166">
         <v>2</v>
@@ -10014,7 +9979,7 @@
         <v>34</v>
       </c>
       <c r="N167" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O167">
         <v>2</v>
@@ -10065,7 +10030,7 @@
         <v>35</v>
       </c>
       <c r="N168" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O168">
         <v>2</v>
@@ -10116,7 +10081,7 @@
         <v>36</v>
       </c>
       <c r="N169" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O169">
         <v>2</v>
@@ -10167,7 +10132,7 @@
         <v>33</v>
       </c>
       <c r="N170" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O170">
         <v>2</v>
@@ -10218,7 +10183,7 @@
         <v>34</v>
       </c>
       <c r="N171" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O171">
         <v>2</v>
@@ -10269,7 +10234,7 @@
         <v>35</v>
       </c>
       <c r="N172" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O172">
         <v>2</v>
@@ -10320,7 +10285,7 @@
         <v>36</v>
       </c>
       <c r="N173" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O173">
         <v>2</v>
@@ -10371,7 +10336,7 @@
         <v>33</v>
       </c>
       <c r="N174" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O174">
         <v>2</v>
@@ -10422,7 +10387,7 @@
         <v>34</v>
       </c>
       <c r="N175" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O175">
         <v>2</v>
@@ -10473,7 +10438,7 @@
         <v>35</v>
       </c>
       <c r="N176" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O176">
         <v>2</v>
@@ -10524,7 +10489,7 @@
         <v>36</v>
       </c>
       <c r="N177" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O177">
         <v>2</v>
@@ -10575,7 +10540,7 @@
         <v>33</v>
       </c>
       <c r="N178" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O178">
         <v>2</v>
@@ -10626,7 +10591,7 @@
         <v>34</v>
       </c>
       <c r="N179" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O179">
         <v>2</v>
@@ -10677,7 +10642,7 @@
         <v>35</v>
       </c>
       <c r="N180" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O180">
         <v>2</v>
@@ -10728,7 +10693,7 @@
         <v>36</v>
       </c>
       <c r="N181" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O181">
         <v>2</v>
@@ -10779,7 +10744,7 @@
         <v>33</v>
       </c>
       <c r="N182" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O182">
         <v>2</v>
@@ -10830,7 +10795,7 @@
         <v>34</v>
       </c>
       <c r="N183" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O183">
         <v>2</v>
@@ -10881,7 +10846,7 @@
         <v>35</v>
       </c>
       <c r="N184" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O184">
         <v>2</v>
@@ -10932,7 +10897,7 @@
         <v>36</v>
       </c>
       <c r="N185" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O185">
         <v>2</v>
@@ -10983,7 +10948,7 @@
         <v>33</v>
       </c>
       <c r="N186" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O186">
         <v>2</v>
@@ -11034,7 +10999,7 @@
         <v>34</v>
       </c>
       <c r="N187" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O187">
         <v>2</v>
@@ -11085,7 +11050,7 @@
         <v>35</v>
       </c>
       <c r="N188" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O188">
         <v>2</v>
@@ -11136,7 +11101,7 @@
         <v>36</v>
       </c>
       <c r="N189" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O189">
         <v>2</v>
@@ -11187,7 +11152,7 @@
         <v>33</v>
       </c>
       <c r="N190" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O190">
         <v>2</v>
@@ -11238,7 +11203,7 @@
         <v>34</v>
       </c>
       <c r="N191" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O191">
         <v>2</v>
@@ -11289,7 +11254,7 @@
         <v>35</v>
       </c>
       <c r="N192" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O192">
         <v>2</v>
@@ -11340,145 +11305,10 @@
         <v>36</v>
       </c>
       <c r="N193" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="O193">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B94DC-8736-4D35-AC75-6ACFA8C4A39F}">
-  <dimension ref="A1:L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>3091.5</v>
-      </c>
-      <c r="C3">
-        <v>1631.29</v>
-      </c>
-      <c r="D3">
-        <v>1434.76</v>
-      </c>
-      <c r="E3">
-        <v>1479.38</v>
-      </c>
-      <c r="F3">
-        <v>3845.02</v>
-      </c>
-      <c r="G3">
-        <v>2463.69</v>
-      </c>
-      <c r="H3">
-        <v>3082.78</v>
-      </c>
-      <c r="I3">
-        <v>1878.96</v>
-      </c>
-      <c r="J3">
-        <v>2130.36</v>
-      </c>
-      <c r="K3">
-        <v>3396.05</v>
-      </c>
-      <c r="L3">
-        <v>3492.52</v>
       </c>
     </row>
   </sheetData>
